--- a/src/main/resources/download/writeBeanTest.xlsx
+++ b/src/main/resources/download/writeBeanTest.xlsx
@@ -12,31 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>一班成绩单</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>成绩</t>
-  </si>
-  <si>
-    <t>是否合格</t>
-  </si>
-  <si>
-    <t>考试日期</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>测试标题</t>
   </si>
@@ -492,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -525,18 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -544,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -554,99 +518,83 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>12</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>20</v>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>28</v>
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
